--- a/analytic-technical backlog.xlsx
+++ b/analytic-technical backlog.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\assets\2017 planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchenli/Box Sync/Yuchen_project/Analytics_project_backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8268"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25540" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="Nov 17 backlog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Project Name</t>
   </si>
@@ -141,12 +147,24 @@
   </si>
   <si>
     <t>IBM staff need LSM approval</t>
+  </si>
+  <si>
+    <t>All Emerging Analytics</t>
+  </si>
+  <si>
+    <t>MarketScan, SAF</t>
+  </si>
+  <si>
+    <t>Analytics server52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python (pandas &gt;0.21.0, numpy, sklearn), R </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,25 +201,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -209,13 +227,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -548,24 +566,24 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -637,7 +655,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -657,7 +675,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -675,7 +693,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -705,7 +723,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -719,7 +737,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -737,7 +755,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -761,7 +779,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -775,17 +793,26 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
